--- a/utils/todo/TodoList.xlsx
+++ b/utils/todo/TodoList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Documents\ITU\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Documents\GitHub\DaybydayCRM\utils\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E284F-EF38-47B1-AC0D-520A8341D954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E42706-0F27-4114-B4C6-709881553FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{69CAAF71-2D90-4999-835F-2F6C7D11FD5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Categorie</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Cloner le projet depuis GitHub</t>
-  </si>
-  <si>
-    <t>Comprehension</t>
   </si>
   <si>
     <t>Installer les dépendances requises (PHP, Composer, Node.js, NPM)</t>
@@ -141,46 +138,73 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lancer le serveur Laravel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>php artisan serve</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tester la connexion avec l’admin (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>admin@admin.com / admin123</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Vérifier la compatibilité des versions (PHP 7.x, Node.js 12.x, MySQL 8.0.33, Composer 2.x, NPM 6.x)</t>
-  </si>
-  <si>
-    <t>Test de chaque fonctionnalites du projet</t>
+    <t>Vérifier la compatibilité des versions (PHP 7.x, Node.js 12.x, MySQL 8.0.41, Composer 2.x, NPM 6.x)</t>
+  </si>
+  <si>
+    <t>Compréhension</t>
+  </si>
+  <si>
+    <t>Test Fonctionnel</t>
+  </si>
+  <si>
+    <t>Tester la recherche globale (mots-clés, filtres)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester la connexion avec l’admin </t>
+  </si>
+  <si>
+    <t>Lancer le serveur Laravel php artisan serve</t>
+  </si>
+  <si>
+    <t>Vérifier le fonctionnement du profile</t>
+  </si>
+  <si>
+    <t>Vérifier la gestion des clients</t>
+  </si>
+  <si>
+    <t>Vérifier la gestion des projets</t>
+  </si>
+  <si>
+    <t>Vérifier la gestion des taches</t>
+  </si>
+  <si>
+    <t>Vérifier la gestion des utilisateurs</t>
+  </si>
+  <si>
+    <t>Vérifier la gestion des leads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier les facturations </t>
+  </si>
+  <si>
+    <t>Verification des liaisons dropbox et google drive</t>
+  </si>
+  <si>
+    <t>Verification des rendez-vous</t>
+  </si>
+  <si>
+    <t>Test de la section absence</t>
+  </si>
+  <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>Modelisation</t>
+  </si>
+  <si>
+    <t>concevoir le mcd du projet</t>
+  </si>
+  <si>
+    <t>Base de donnee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger le probleme de liaison avec dropbox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corriger le probleme de liaison avec drive </t>
   </si>
 </sst>
 </file>
@@ -614,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA306E2-2E54-4FF7-B5D6-AD01021261D4}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -660,7 +684,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
@@ -688,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -702,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
@@ -716,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
@@ -730,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
@@ -744,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>7</v>
@@ -758,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -772,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
@@ -786,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -800,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
@@ -814,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -825,43 +849,198 @@
     </row>
     <row r="14" spans="1:7" ht="25.8" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="D14" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="23.1" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="23.1" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23.1" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="32.25" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="30.65" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30.65" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="29.55" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.55" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27.95">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="33.85" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="22.05" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="5">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/utils/todo/TodoList.xlsx
+++ b/utils/todo/TodoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismael\Documents\GitHub\DaybydayCRM\utils\todo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E42706-0F27-4114-B4C6-709881553FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6558F0-0E80-4421-9625-3A5C2D9DEE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{69CAAF71-2D90-4999-835F-2F6C7D11FD5D}"/>
   </bookViews>
@@ -640,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA306E2-2E54-4FF7-B5D6-AD01021261D4}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
